--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3126.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3126.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.333754897635031</v>
+        <v>1.67774772644043</v>
       </c>
       <c r="B1">
-        <v>1.856828847893392</v>
+        <v>1.939854264259338</v>
       </c>
       <c r="C1">
-        <v>3.294826428845375</v>
+        <v>2.024612903594971</v>
       </c>
       <c r="D1">
-        <v>5.038044242187721</v>
+        <v>2.515945911407471</v>
       </c>
       <c r="E1">
-        <v>1.131086380309902</v>
+        <v>3.562259197235107</v>
       </c>
     </row>
   </sheetData>
